--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Ingredients" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Directions" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Ingredients!$A$1:$C$124</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="150">
   <si>
     <t xml:space="preserve">Recipe</t>
   </si>
@@ -474,75 +473,6 @@
   </si>
   <si>
     <t xml:space="preserve">italian seasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claire Borchers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put all in a rice cooker or cook quinoa and veggies seperately then add everything together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claire Cantlon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mix and bake at 350F deg for 10 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oven at 350 for 30 minutes, use 9x13 or two round pans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mix and frost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitchell Borchers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour borth in pot, cut up veggies and put in broth, put chicken in broth, bring to boil and put noodles in, season to taste, boil until chicken and noodles cooked, pull apart chicken and put back in soup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mum Borchers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create egg and cream mixture with spices, spray pan, thin walled baking pan preffered. Bake at 325 for 25-30 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuchinni Bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shalane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oven to 400F, baking sheet with parchment paper with oil on top, combine ingreds and let rest for 15 mins, bake for 30 mins, flip halfway thru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre cook onions, wash and dy beans, then mix everything in pan and cook with cast iron skillet if possible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marinate chicken overnight, grill or cook on stove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook veggies in oil till soft, add chickpeas or tempeh, simmer 25 minutes, add vinegar and pepper at end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oven to 400F, use 9x13 pan, put veggies in pan, fish on top, bake 25-30 mins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add all veggies except beans into pan with oil, saute, then add broth, chicken and beans, bring to boil then keep on low for 20 mins, take chicken out and shred with fork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get large soup pan, cut up veggies and simmer in oil till soft, add broth and chicken simmer for 30 mins, pull apart chicken with forks, return chicken to pot, stir in parsely and spinach and lemon juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Hero Muffins</t>
   </si>
 </sst>
 </file>
@@ -552,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -575,7 +505,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -583,12 +512,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -642,7 +565,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -650,12 +577,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -682,1437 +605,1438 @@
   <dimension ref="A1:BJ124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B107" activeCellId="0" sqref="B107"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="26" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+    <row r="29" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+    <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+    <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+    <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+    <row r="34" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+    <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+    <row r="39" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+    <row r="40" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+    <row r="42" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+    <row r="43" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+    <row r="44" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+    <row r="45" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+    <row r="46" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+    <row r="47" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+    <row r="48" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+    <row r="49" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+    <row r="50" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+    <row r="51" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+    <row r="52" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+    <row r="53" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+    <row r="54" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+    <row r="55" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+    <row r="56" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+    <row r="57" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+    <row r="58" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+    <row r="59" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+    <row r="60" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+    <row r="61" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+    <row r="62" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+    <row r="63" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+    <row r="64" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+    <row r="65" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+    <row r="66" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+    <row r="67" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+    <row r="68" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+    <row r="69" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+    <row r="70" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+    <row r="71" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+    <row r="72" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+    <row r="73" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+    <row r="74" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
+    <row r="75" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+    <row r="76" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+    <row r="77" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+    <row r="78" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+    <row r="79" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+    <row r="80" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+    <row r="81" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+    <row r="82" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+    <row r="83" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+    <row r="84" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+    <row r="85" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
+    <row r="86" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+    <row r="87" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+    <row r="88" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
+    <row r="89" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+    <row r="90" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+    <row r="91" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+    <row r="92" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
+    <row r="93" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
+    <row r="94" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+    <row r="95" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+    <row r="96" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+    <row r="97" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
+    <row r="98" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+    <row r="99" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
+    <row r="100" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
+    <row r="101" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
+    <row r="102" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
+    <row r="103" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
+    <row r="104" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
+    <row r="105" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
+    <row r="106" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
+    <row r="107" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
+    <row r="108" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
+    <row r="109" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
+    <row r="110" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="s">
+    <row r="111" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
+    <row r="112" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
+    <row r="113" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
+    <row r="114" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
+    <row r="115" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
+    <row r="116" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
+    <row r="117" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
+    <row r="118" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
+    <row r="119" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+    <row r="124" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2127,206 +2051,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="26.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="132.09"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Recipes.xlsx
+++ b/Recipes.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="173">
   <si>
     <t xml:space="preserve">Recipe</t>
   </si>
@@ -473,6 +473,75 @@
   </si>
   <si>
     <t xml:space="preserve">italian seasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo Chicken Dip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot sauce (red hot buffalo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">½ cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranch dressing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken breast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheese shredded sharp cheddar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jins Pho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cinnamon stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jins Pho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardamom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thai basil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bean sprouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green onion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cilantro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¼ cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef round eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¼ lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 inch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broth beef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soy sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">½ tsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish sauce</t>
   </si>
 </sst>
 </file>
@@ -602,12 +671,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ124"/>
+  <dimension ref="A1:BJ142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A142" activeCellId="0" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2040,6 +2109,204 @@
         <v>24</v>
       </c>
     </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C124"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
